--- a/codigos/wb7.xlsx
+++ b/codigos/wb7.xlsx
@@ -1,149 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara Palacios\Documents\SaraUR\Programación\proyecto2\proyecto_final_prog\codigos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921C3AD7-C60C-4D97-A7A6-79C0F848D080}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6885" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>hgjhn</t>
-  </si>
-  <si>
-    <t>jhk</t>
-  </si>
-  <si>
-    <t>}hgjhkj</t>
-  </si>
-  <si>
-    <t>bj</t>
-  </si>
-  <si>
-    <t>hj</t>
-  </si>
-  <si>
-    <t>wer</t>
-  </si>
-  <si>
-    <t>wteyr</t>
-  </si>
-  <si>
-    <t>fesgfdh</t>
-  </si>
-  <si>
-    <t>qrery</t>
-  </si>
-  <si>
-    <t>qwre</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>sg</t>
-  </si>
-  <si>
-    <t>f</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PESO NETO</t>
+  </si>
+  <si>
+    <t>TAMAÑO POR PORCIÓN</t>
+  </si>
+  <si>
+    <t>CALORIAS</t>
+  </si>
+  <si>
+    <t>CALORIAS DE GRASA</t>
+  </si>
+  <si>
+    <t>GRASA TOTAL</t>
+  </si>
+  <si>
+    <t>COLESTEROL</t>
+  </si>
+  <si>
+    <t>SODIO</t>
+  </si>
+  <si>
+    <t>CARBOHIDRATOS</t>
+  </si>
+  <si>
+    <t>FIBRA</t>
+  </si>
+  <si>
+    <t>AZÚCARES</t>
+  </si>
+  <si>
+    <t>PROTEINA</t>
+  </si>
+  <si>
+    <t>CALCIO</t>
+  </si>
+  <si>
+    <t>VITAMINA A</t>
+  </si>
+  <si>
+    <t>VITAMINA C</t>
+  </si>
+  <si>
+    <t>VITAMINA D</t>
+  </si>
+  <si>
+    <t>HIERRO</t>
+  </si>
+  <si>
+    <t>Lácteo</t>
+  </si>
+  <si>
+    <t>Alquería</t>
+  </si>
+  <si>
+    <t>Crema de leche</t>
+  </si>
+  <si>
+    <t>200g</t>
+  </si>
+  <si>
+    <t>1 cda (15g)</t>
+  </si>
+  <si>
+    <t>5g</t>
+  </si>
+  <si>
+    <t>15 mg</t>
+  </si>
+  <si>
+    <t>10g</t>
+  </si>
+  <si>
+    <t>0g</t>
+  </si>
+  <si>
+    <t>Alpina</t>
+  </si>
+  <si>
+    <t>Leche entera</t>
+  </si>
+  <si>
+    <t>1lt</t>
+  </si>
+  <si>
+    <t>1 vaso (240ml)</t>
+  </si>
+  <si>
+    <t>150kcal</t>
+  </si>
+  <si>
+    <t>70kcal</t>
+  </si>
+  <si>
+    <t>8g</t>
+  </si>
+  <si>
+    <t>25mg</t>
+  </si>
+  <si>
+    <t>105mg</t>
+  </si>
+  <si>
+    <t>13g</t>
+  </si>
+  <si>
+    <t>7g</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Queso</t>
+  </si>
+  <si>
+    <t>250g</t>
+  </si>
+  <si>
+    <t>25g</t>
+  </si>
+  <si>
+    <t>50kcal</t>
+  </si>
+  <si>
+    <t>15mg</t>
+  </si>
+  <si>
+    <t>150mg</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>4g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,15 +205,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,241 +512,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="n">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>2</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/codigos/wb7.xlsx
+++ b/codigos/wb7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara Palacios\Documents\SaraUR\Programación\proyecto2\proyecto_final_prog\codigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921C3AD7-C60C-4D97-A7A6-79C0F848D080}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEC34EE-96CA-4AF2-82AC-69CEDC1D2137}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>TIPO DE PRODUCTO</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>5g</t>
-  </si>
-  <si>
-    <t>15 mg</t>
   </si>
   <si>
     <t>10g</t>
@@ -516,7 +513,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,22 +619,22 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
@@ -660,43 +657,43 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
         <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
       </c>
       <c r="O3" s="1">
         <v>0.25</v>
@@ -719,43 +716,43 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
       </c>
       <c r="O4" s="1">
         <v>0.02</v>
